--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:16:03+00:00</t>
+    <t>2023-02-13T12:20:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:20:57+00:00</t>
+    <t>2023-02-13T12:39:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,10 +99,10 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>31676001</t>
-  </si>
-  <si>
-    <t>Human immunodeficiency virus antigen test (procedure)</t>
+    <t>315124004</t>
+  </si>
+  <si>
+    <t>Human immunodeficiency virus viral load (procedure)</t>
   </si>
   <si>
     <t/>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:39:54+00:00</t>
+    <t>2023-02-13T19:08:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:08:35+00:00</t>
+    <t>2023-02-13T19:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:10:14+00:00</t>
+    <t>2023-02-13T19:11:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:11:03+00:00</t>
+    <t>2023-02-14T09:42:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/ValueSet-vs-hiv-test-done.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/ValueSet-vs-hiv-test-done.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:42:47+00:00</t>
+    <t>2023-02-14T09:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
